--- a/BadEvents (Repaired).xlsx
+++ b/BadEvents (Repaired).xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\unitything\Be-a-god\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,6 @@
     <sheet name="GOOD" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Event</t>
   </si>
@@ -200,7 +199,49 @@
     <t>Option 4 Bad</t>
   </si>
   <si>
-    <t>A (mild/moderate/severe) drought has plauged your people.</t>
+    <t>A neighboring nation has disrupted your peoples trade route.</t>
+  </si>
+  <si>
+    <t>Water is being rationed off amongst your people, those with lower social status thirst and ask for your help.</t>
+  </si>
+  <si>
+    <t>A cyclone appears and begins ripping apart your peoples houses.</t>
+  </si>
+  <si>
+    <t>A volcano dormant for thousands of years rumbles close to your people. Unknown to your people, this volcano is bound to blow soon.</t>
+  </si>
+  <si>
+    <t>An unorganized nomad tribe has stumbled upon your peoples land and has started attacking your people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without much effort, you dip your fingers in your chalice and lightly sprinkle the sparse land below. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You dump a good portion of your chalice on to the lands below. </t>
+  </si>
+  <si>
+    <t>You take a heaping sip of water from your chalice and spit it out with much force.</t>
+  </si>
+  <si>
+    <t>Option 3 Bad</t>
+  </si>
+  <si>
+    <t>Option 4 Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You conjure up a typhoon large enough that even you can see from your throne! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighboring nation has initiated an attack against your people. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without much effort, you dip your fingers in your chalice and lightly sprinkle the sparse land below. The people are happy that rain has come their way. Some feel that this is a good sign and are gambling more </t>
+  </si>
+  <si>
+    <t>An earthquake shakes the ground, some of your follower's buildings and houses are destroyed.</t>
+  </si>
+  <si>
+    <t>A snowstorm approaches. Weather reports have estimated a foot of snow.</t>
   </si>
 </sst>
 </file>
@@ -521,21 +562,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="146.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="125.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="218.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30" style="1" customWidth="1"/>
+    <col min="3" max="3" width="90.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="112.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="128.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="87.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="53.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="67.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -559,7 +602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -681,22 +724,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,12 +759,92 @@
         <v>55</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/BadEvents (Repaired).xlsx
+++ b/BadEvents (Repaired).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
   <si>
     <t>Event</t>
   </si>
@@ -115,9 +115,6 @@
     <t>raging winds to clear the snow, saves lives of followers</t>
   </si>
   <si>
-    <t>Without much effort, you dip your fingers in your chalice and lightly sprinkle the sparse land below. Your followers scramble out of their dilapidated residence to grab what they can in their dust filled buckets. (fights break out??)</t>
-  </si>
-  <si>
     <t>One "follower" has started a movement against Your Grace as he believes the "silly" array of daily rituals such as the Holy Jumping Jacks are unnecessary.</t>
   </si>
   <si>
@@ -242,6 +239,42 @@
   </si>
   <si>
     <t>A snowstorm approaches. Weather reports have estimated a foot of snow.</t>
+  </si>
+  <si>
+    <t>Without much effort, you dip your fingers in your chalice and lightly sprinkle the sparse land below. Your followers scramble out of their dilapidated residence to grab what they can in their dust filled buckets. Fights break out.</t>
+  </si>
+  <si>
+    <t>You dump a good portion of your chalice on to the lands below. You seemed to have focused your water on one location, as a result, minor flooding occurs.</t>
+  </si>
+  <si>
+    <t>Event : Description of Event</t>
+  </si>
+  <si>
+    <t>Outcome is God Action : People Response</t>
+  </si>
+  <si>
+    <t>You take a heaping sip of water from your chalice and spit it out with much force. People rejoice as a hurricane ravages through the lands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You take a heaping sip of water from your chalice and spit it out with much force.  A large hurrican forms over your peoples land, the winds ravage and tear up the houses of your people.</t>
+  </si>
+  <si>
+    <t>You conjure up a typhoon large enough that even you can see from your throne! Like a sponge, the land absorbs all of the excess water. Plants instantly come back to life and wells fill, your people are amazed and happy.</t>
+  </si>
+  <si>
+    <t>An earthquake shakes the ground, people are thrown off balance and buildings wobble.</t>
+  </si>
+  <si>
+    <t>You throw a mighty punch to the earth in the quakes opposite direction. Unfortuntantly, your form was a little shaky and the quake only got stronger.</t>
+  </si>
+  <si>
+    <t>You throw a mighty punch to the earth in the quakes opposite direction. Your punch was spot on and the quake quells, your people praise your strength and sharp thinking.</t>
+  </si>
+  <si>
+    <t>With little effort, you apply force using a single finger to counter act the quake. The quake ceased in isolated locations.</t>
+  </si>
+  <si>
+    <t>With little effort, you apply force using a single finger to counter act the quake. The quake shivers in fear to your touch and disspates instantly. Your people are as equally amazed as you are.</t>
   </si>
 </sst>
 </file>
@@ -564,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,14 +639,11 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
@@ -621,10 +651,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
@@ -641,13 +671,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,7 +701,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,10 +714,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -698,45 +728,53 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -744,107 +782,140 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -936,12 +1007,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/BadEvents (Repaired).xlsx
+++ b/BadEvents (Repaired).xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\unitything\Be-a-god\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\banner.main.ad.rit.edu\students\rwg6766\IGMProfile\Documents\Github\Be-a-god\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="93">
   <si>
     <t>Event</t>
   </si>
@@ -148,12 +148,6 @@
     <t>Neighboring nation is attacking???</t>
   </si>
   <si>
-    <t>Using your brush of magnificance, you paint the sky with a adjective rainbow. Your people are amused.</t>
-  </si>
-  <si>
-    <t>Your people are bored , one of them is kicking a tumble weed.</t>
-  </si>
-  <si>
     <t>Oracle vision.</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t xml:space="preserve">Without much effort, you dip your fingers in your chalice and lightly sprinkle the sparse land below. The people are happy that rain has come their way. Some feel that this is a good sign and are gambling more </t>
   </si>
   <si>
-    <t>An earthquake shakes the ground, some of your follower's buildings and houses are destroyed.</t>
-  </si>
-  <si>
     <t>A snowstorm approaches. Weather reports have estimated a foot of snow.</t>
   </si>
   <si>
@@ -275,6 +266,45 @@
   </si>
   <si>
     <t>With little effort, you apply force using a single finger to counter act the quake. The quake shivers in fear to your touch and disspates instantly. Your people are as equally amazed as you are.</t>
+  </si>
+  <si>
+    <t>In a fit of anger, you rain fire down upon the villagers! Are they not entertained?</t>
+  </si>
+  <si>
+    <t>Nothing incredible has happened lately. Your people are bored and complaining, one of them is kicking a tumble weed.</t>
+  </si>
+  <si>
+    <t>Using your brush of magnificance, you paint the sky with a marvelous rainbow. Your people are amused.</t>
+  </si>
+  <si>
+    <t>You strike down one of your followers with a brilliant flash of lightning. They certainly aren't bored anymore.</t>
+  </si>
+  <si>
+    <t>In an act of generosity, you drip water from your chalice upon the village crops. The villagers rejoice in their harvest.</t>
+  </si>
+  <si>
+    <t>You give the little heretic a plague of severe itchyness. He seems to have learned his lesson, and now everyday he does extra Holy Jumping Jacks.</t>
+  </si>
+  <si>
+    <t>In your rage you hurled down a mighty thunderbolt to smite the sinful rebel, but you missed and hit the cheese-maker. The movement doubles in strength.</t>
+  </si>
+  <si>
+    <t>You struck down the sinful rebel with a blinding flash of lightning.None of your follows skipped their Holy Jumping Jacks that day.</t>
+  </si>
+  <si>
+    <t>You plagued the little heretic with relentless sneezing. He seems to have become angry and the movement continues.</t>
+  </si>
+  <si>
+    <t>You beset the nay-sayer with nightmares and visions of inconceivable horror. Nothing has changed, he must have forgot his dreams.</t>
+  </si>
+  <si>
+    <t>You appear before the nay-sayer in a dream in all your glory… then smack him across the face. The next day he hastily ended the movement.</t>
+  </si>
+  <si>
+    <t>You reach to the sun and scoop a mighty fire-ball then drop it upon the rebelious movement. Many people died, but most of them were rebels… you know… probably.</t>
+  </si>
+  <si>
+    <t>You unleash a vicious plague of mosquitos upon your people until they repent their sinful ways. The nay-sayer quickly loses all his support.</t>
   </si>
 </sst>
 </file>
@@ -597,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,13 +701,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,45 +761,54 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -782,54 +821,54 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>21</v>
@@ -837,85 +876,109 @@
     </row>
     <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
